--- a/QuizgenerationTotal/Book1.xlsx
+++ b/QuizgenerationTotal/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\QuizgenerationTotal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Intern\QuizgenerationTotal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D05E3-84F9-40A0-A07D-8EE381A29E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6822DB-35A0-4F98-8356-8A7911064087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{496B6C52-631B-4B0D-B9C3-FF4042B2F6AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>B option</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>c</t>
@@ -205,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,10 +234,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,21 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC9D0D-0952-4746-B3E2-39C178708107}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16:AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" customWidth="1"/>
     <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -587,21 +572,19 @@
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="O1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="R1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -617,25 +600,23 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -651,25 +632,23 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -685,35 +664,31 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -729,50 +704,35 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
       <c r="L6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -781,28 +741,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -810,28 +752,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -839,19 +763,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -862,7 +780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -876,29 +794,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>3</v>
       </c>
@@ -909,173 +827,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="W16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Z16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="M24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
-        <v>42</v>
-      </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="O7:R7"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QuizgenerationTotal/Book1.xlsx
+++ b/QuizgenerationTotal/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Intern\QuizgenerationTotal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6822DB-35A0-4F98-8356-8A7911064087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73929DD-D700-4FCB-B1A0-4E64809DD05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{496B6C52-631B-4B0D-B9C3-FF4042B2F6AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Type_Id</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>QuestionSys</t>
   </si>
   <si>
-    <t>AnsId</t>
-  </si>
-  <si>
     <t>AnswerOption</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Qus_Id</t>
   </si>
   <si>
-    <t>Ano_Id</t>
-  </si>
-  <si>
     <t>HTML</t>
   </si>
   <si>
@@ -87,30 +78,9 @@
     <t>Choice</t>
   </si>
   <si>
-    <t>user_ID</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>uer_id</t>
-  </si>
-  <si>
-    <t>Qus_ID</t>
-  </si>
-  <si>
-    <t>UserAnswer</t>
-  </si>
-  <si>
-    <t>Huy</t>
-  </si>
-  <si>
-    <t>Khang</t>
-  </si>
-  <si>
     <t>A option</t>
   </si>
   <si>
@@ -175,6 +145,51 @@
   </si>
   <si>
     <t>2inM</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Tag_Name</t>
+  </si>
+  <si>
+    <t>Back_end</t>
+  </si>
+  <si>
+    <t>Font_end</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Question_Type</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>User_Aswer</t>
+  </si>
+  <si>
+    <t>Tag_Id</t>
+  </si>
+  <si>
+    <t>User_Id</t>
+  </si>
+  <si>
+    <t>Answer_id</t>
+  </si>
+  <si>
+    <t>Qus_id</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Quiz_Id</t>
+  </si>
+  <si>
+    <t>Quiz_Name</t>
   </si>
 </sst>
 </file>
@@ -225,12 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,152 +562,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC9D0D-0952-4746-B3E2-39C178708107}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16:AC22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.1796875" customWidth="1"/>
     <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -703,316 +739,329 @@
       </c>
       <c r="E6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
         <v>44</v>
       </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="1"/>
-      <c r="Z16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W17" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>46</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
-        <v>31</v>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QuizgenerationTotal/Book1.xlsx
+++ b/QuizgenerationTotal/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Intern\QuizgenerationTotal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73929DD-D700-4FCB-B1A0-4E64809DD05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF540C6-9FE9-49F6-BB38-5BD63CC5D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{496B6C52-631B-4B0D-B9C3-FF4042B2F6AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -180,16 +180,22 @@
     <t>Answer_id</t>
   </si>
   <si>
-    <t>Qus_id</t>
-  </si>
-  <si>
-    <t>Quiz</t>
-  </si>
-  <si>
     <t>Quiz_Id</t>
   </si>
   <si>
     <t>Quiz_Name</t>
+  </si>
+  <si>
+    <t>Quiz_Question</t>
+  </si>
+  <si>
+    <t>Quiz_Question_Id</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Quiz_test</t>
   </si>
 </sst>
 </file>
@@ -562,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC9D0D-0952-4746-B3E2-39C178708107}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O8" sqref="O8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,13 +580,16 @@
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -602,7 +611,7 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -619,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -636,8 +645,11 @@
       <c r="O2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -669,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -701,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -724,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -747,7 +759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -764,11 +776,11 @@
       </c>
       <c r="M8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -797,13 +809,13 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -820,7 +832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -840,7 +852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -857,7 +869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -871,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>2</v>
       </c>
@@ -882,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>2</v>
       </c>
@@ -898,8 +910,14 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>3</v>
       </c>
@@ -919,7 +937,19 @@
         <v>50</v>
       </c>
       <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" t="s">
         <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -1053,7 +1083,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:P1"/>
@@ -1062,6 +1092,7 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O15:R15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QuizgenerationTotal/Book1.xlsx
+++ b/QuizgenerationTotal/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Intern\QuizgenerationTotal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF540C6-9FE9-49F6-BB38-5BD63CC5D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8279A-93F6-407B-9F5A-1AFE45C0F788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{496B6C52-631B-4B0D-B9C3-FF4042B2F6AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Quiz_test</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>ordering</t>
   </si>
 </sst>
 </file>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC9D0D-0952-4746-B3E2-39C178708107}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:P8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +595,7 @@
     <col min="17" max="17" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -611,7 +617,7 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -649,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -665,6 +671,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -681,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -697,6 +706,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <v>2</v>
       </c>
@@ -713,13 +725,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="I5">
         <v>3</v>
       </c>
@@ -736,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -752,6 +776,9 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <v>4</v>
       </c>
@@ -759,340 +786,522 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="J12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I13" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L13" t="s">
         <v>49</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M13" t="s">
         <v>7</v>
       </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
+      <c r="I16">
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6</v>
+      </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>7</v>
+      </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>8</v>
+      </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>9</v>
+      </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10</v>
+      </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C24">
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D29" t="s">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
+    <row r="56" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P56" t="s">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
+      <c r="Q56" t="s">
         <v>30</v>
       </c>
-      <c r="G33" t="s">
+      <c r="S56" t="s">
         <v>20</v>
       </c>
-      <c r="H33" t="s">
+      <c r="T56" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
